--- a/main_cond.xlsx
+++ b/main_cond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfe144674\WorkSpace\PJ493_DataAssim_CatalyticReactor\codes_PJ493\05_gas_adsorption_3dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9994F871-C11E-4C46-BF24-4DF8C039BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A8B3E-7F72-4B64-ADBF-24CA65C45852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A91AB922-DF3B-48DF-8830-7786F530DB46}"/>
   </bookViews>
@@ -25,7 +25,8 @@
     <t>実行したいconditionフォルダ名</t>
   </si>
   <si>
-    <t>5_09_mod_error_handling</t>
+    <t>test</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1009,7 +1010,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
